--- a/TestProject/src/main/webapp/list1.xlsx
+++ b/TestProject/src/main/webapp/list1.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhrd\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CA81190-3A33-4169-B34D-1B26FADE5AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D22F2FAC-E322-4FB8-9ED4-3C246DD899B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{55B6F845-024C-4C69-B1A3-9CF727AC8EE1}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21630" windowHeight="14895" xr2:uid="{55B6F845-024C-4C69-B1A3-9CF727AC8EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3687,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21EB496-7B9E-4E32-9A90-42BBA1EC1578}">
   <dimension ref="A1:I952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="D284" workbookViewId="0">
+      <selection activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
